--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/10/seed4/result_data_RandomForest.xlsx
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.9551</v>
+        <v>-21.947</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.32960000000001</v>
+        <v>-22.38170000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.43879999999999</v>
+        <v>-20.63879999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.92189999999999</v>
+        <v>-21.78339999999998</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.66749999999998</v>
+        <v>-21.63949999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.60079999999998</v>
+        <v>-19.87139999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.9881</v>
+        <v>-21.9675</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
